--- a/data/case1/18/Qlm2_2.xlsx
+++ b/data/case1/18/Qlm2_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.19771147265471711</v>
+        <v>-0.23512655154714679</v>
       </c>
       <c r="B1" s="0">
-        <v>0.19725631807836663</v>
+        <v>0.23459094318251772</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17515275090270599</v>
+        <v>-0.17190942954084854</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17328750983715135</v>
+        <v>0.17035052017249797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.086553685712035033</v>
+        <v>-0.1206323867633472</v>
       </c>
       <c r="B3" s="0">
-        <v>0.086254920282483383</v>
+        <v>0.12016268991811252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.078254920344965839</v>
+        <v>-0.11216268995799261</v>
       </c>
       <c r="B4" s="0">
-        <v>0.077998245384730325</v>
+        <v>0.11174233135237976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.074998245419280352</v>
+        <v>-0.10874233137556999</v>
       </c>
       <c r="B5" s="0">
-        <v>0.074145331520929503</v>
+        <v>0.10731770752222669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.04721939437640188</v>
+        <v>-0.0080349826492849274</v>
       </c>
       <c r="B6" s="0">
-        <v>0.046742763292867195</v>
+        <v>0.0079812981109981251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.036742763376289567</v>
+        <v>0.0020187018326498496</v>
       </c>
       <c r="B7" s="0">
-        <v>0.036629563759519979</v>
+        <v>-0.0020221677656904191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.026629563845547377</v>
+        <v>0.012022167709428988</v>
       </c>
       <c r="B8" s="0">
-        <v>0.026436340937610936</v>
+        <v>-0.012030433735799928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.024436340976652371</v>
+        <v>0.014030433711103463</v>
       </c>
       <c r="B9" s="0">
-        <v>0.024280350503379733</v>
+        <v>-0.014046010577732915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.022280350544493288</v>
+        <v>0.01604601055401389</v>
       </c>
       <c r="B10" s="0">
-        <v>0.022271139876030688</v>
+        <v>-0.01604760096786606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.019271139923378477</v>
+        <v>0.019047600940123033</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0192556328535467</v>
+        <v>-0.019053926953730205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.015755632904327577</v>
+        <v>0.02255392692441216</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015647975835271666</v>
+        <v>-0.022651396633118104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012147975887783602</v>
+        <v>0.02615139660604715</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012104785304279275</v>
+        <v>-0.026236675037913493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0041047853846505333</v>
+        <v>0.034236674994497562</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0040964907583251886</v>
+        <v>-0.034349200198218632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0030964907956150256</v>
+        <v>0.035349200182991147</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0030934536854241301</v>
+        <v>-0.035489311284076841</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0010934537288567192</v>
+        <v>0.007375010413576355</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0010919833087870146</v>
+        <v>-0.0073871078998428708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034920314004907</v>
+        <v>0.0093871078830005672</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999944432453</v>
+        <v>-0.0093966756540320162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016103567213828995</v>
+        <v>-0.056681513665864713</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091528787004705</v>
+        <v>0.056582937530670563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091528813102048</v>
+        <v>-0.052582937547676956</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016564328470647</v>
+        <v>0.051870201888684075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165643564988898</v>
+        <v>-0.04787020191098712</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056564730703883</v>
+        <v>0.047670041686476594</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005656501406385</v>
+        <v>-0.043670041710003993</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999714259715</v>
+        <v>0.043365022910090367</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.082733824160143854</v>
+        <v>-0.045718133430986185</v>
       </c>
       <c r="B22" s="0">
-        <v>0.082146596920259718</v>
+        <v>0.045502887884551591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.077146596965250502</v>
+        <v>-0.040502887911449292</v>
       </c>
       <c r="B23" s="0">
-        <v>0.07595175115526942</v>
+        <v>0.040099832359336673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.055951751300291619</v>
+        <v>-0.020099832446226706</v>
       </c>
       <c r="B24" s="0">
-        <v>0.055359374909686121</v>
+        <v>0.019999999911950894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.024925937178647217</v>
+        <v>-0.097282724898549944</v>
       </c>
       <c r="B25" s="0">
-        <v>0.024922794524696812</v>
+        <v>0.097155851931509218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.02242279456199725</v>
+        <v>-0.094655851960002479</v>
       </c>
       <c r="B26" s="0">
-        <v>0.022419235170284324</v>
+        <v>0.094492773624430981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.019919235208085695</v>
+        <v>-0.091992773654737459</v>
       </c>
       <c r="B27" s="0">
-        <v>0.019894380264635192</v>
+        <v>0.091028574610774182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.017894380301533452</v>
+        <v>-0.089028574646655478</v>
       </c>
       <c r="B28" s="0">
-        <v>0.017876491502243574</v>
+        <v>0.08836836742130405</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.040465683055859181</v>
+        <v>-0.081368367481835513</v>
       </c>
       <c r="B29" s="0">
-        <v>0.040432898099386883</v>
+        <v>0.081176812309859514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.045575056766569588</v>
+        <v>-0.021176812576976456</v>
       </c>
       <c r="B30" s="0">
-        <v>0.045132600709388626</v>
+        <v>0.021024544740468887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022520295720042</v>
+        <v>-0.014024544805554484</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001136879331355</v>
+        <v>0.014001390855000295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011369744537006</v>
+        <v>-0.004001390931898996</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999941674659</v>
+        <v>0.0039999999460693658</v>
       </c>
     </row>
   </sheetData>
